--- a/dec_a/_5/Lab 5 Tutor Guide.xlsx
+++ b/dec_a/_5/Lab 5 Tutor Guide.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jasonc\Desktop\IT2353 Decision Science\Course Materials\Week 5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\werty\Downloads\GitHub\zweites-sem\dec_a\_5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD29EAB9-CCF2-4F6D-A21D-9BB3772E3648}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D949DAA1-69E9-4D55-A550-947E569AA5B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4260" yWindow="2445" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Q1" sheetId="3" r:id="rId1"/>
@@ -286,8 +286,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -431,7 +431,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -451,9 +451,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -463,9 +460,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -500,7 +494,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -516,32 +510,32 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -568,9 +562,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -608,9 +602,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -643,26 +637,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -695,26 +672,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -890,152 +850,152 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14:L14"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="9.1796875" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="B2" s="26" t="s">
+    <row r="2" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B2" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B3" s="28" t="s">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="29">
+      <c r="C3" s="27">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="26" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B4" s="28" t="s">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="29">
+      <c r="C4" s="27">
         <v>0.08</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="F4" s="26" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B5" s="28" t="s">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="29">
+      <c r="C5" s="27">
         <v>0.09</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="28" t="s">
+      <c r="E5" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="28" t="s">
+      <c r="F5" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B6" s="28" t="s">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="29">
+      <c r="C6" s="27">
         <v>0.09</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="28" t="s">
+      <c r="E6" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="28" t="s">
+      <c r="F6" s="26" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B7" s="28" t="s">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="29">
+      <c r="C7" s="27">
         <v>0.09</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="28" t="s">
+      <c r="E7" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="28" t="s">
+      <c r="F7" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="C9" s="25" t="s">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C9" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="25" t="s">
+      <c r="E9" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="F9" s="25" t="s">
+      <c r="F9" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="25" t="s">
+      <c r="G9" s="23" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B10" s="23" t="s">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="30">
+      <c r="C10" s="28">
         <v>20338.983050847462</v>
       </c>
-      <c r="D10" s="33">
+      <c r="D10" s="31">
         <v>20338.983050847459</v>
       </c>
-      <c r="E10" s="36">
+      <c r="E10" s="34">
         <v>29661.016949152538</v>
       </c>
-      <c r="F10" s="39">
-        <v>0</v>
-      </c>
-      <c r="G10" s="42">
+      <c r="F10" s="37">
+        <v>0</v>
+      </c>
+      <c r="G10" s="40">
         <v>29661.016949152541</v>
       </c>
       <c r="H10">
@@ -1046,30 +1006,30 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B11" s="23"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B12" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="31">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="21"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="29">
         <f>C3</f>
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="D12" s="34">
+      <c r="D12" s="32">
         <f>C4</f>
         <v>0.08</v>
       </c>
-      <c r="E12" s="37">
+      <c r="E12" s="35">
         <f>C5</f>
         <v>0.09</v>
       </c>
-      <c r="F12" s="40">
+      <c r="F12" s="38">
         <f>C6</f>
         <v>0.09</v>
       </c>
-      <c r="G12" s="43">
+      <c r="G12" s="41">
         <f>C7</f>
         <v>0.09</v>
       </c>
@@ -1081,51 +1041,47 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B13" s="23"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B14" s="23" t="s">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="21"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="21" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B15" s="23" t="s">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="32"/>
-      <c r="D15" s="35">
-        <v>1</v>
-      </c>
-      <c r="E15" s="38"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="44">
-        <v>1</v>
-      </c>
-      <c r="H15">
-        <f>$C$10*$C15+$D$10*$D15+$E$10*$E15+$F$10*$F15+$G$10*$G15</f>
-        <v>50000</v>
+      <c r="C15" s="30"/>
+      <c r="D15" s="33">
+        <v>1</v>
+      </c>
+      <c r="E15" s="36"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="42">
+        <v>1</v>
       </c>
       <c r="I15" t="s">
         <v>44</v>
       </c>
-      <c r="J15" s="24">
+      <c r="J15" s="22">
         <v>50000</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B16" s="23" t="s">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="32">
-        <v>1</v>
-      </c>
-      <c r="D16" s="35"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="41">
-        <v>1</v>
-      </c>
-      <c r="G16" s="44">
+      <c r="C16" s="30">
+        <v>1</v>
+      </c>
+      <c r="D16" s="33"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="39">
+        <v>1</v>
+      </c>
+      <c r="G16" s="42">
         <v>1</v>
       </c>
       <c r="H16">
@@ -1135,25 +1091,25 @@
       <c r="I16" t="s">
         <v>11</v>
       </c>
-      <c r="J16" s="24">
+      <c r="J16" s="22">
         <v>50000</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B17" s="23" t="s">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="32">
-        <v>1</v>
-      </c>
-      <c r="D17" s="35">
-        <v>1</v>
-      </c>
-      <c r="E17" s="38"/>
-      <c r="F17" s="41">
-        <v>1</v>
-      </c>
-      <c r="G17" s="44"/>
+      <c r="C17" s="30">
+        <v>1</v>
+      </c>
+      <c r="D17" s="33">
+        <v>1</v>
+      </c>
+      <c r="E17" s="36"/>
+      <c r="F17" s="39">
+        <v>1</v>
+      </c>
+      <c r="G17" s="42"/>
       <c r="H17">
         <f t="shared" si="0"/>
         <v>40677.966101694925</v>
@@ -1161,28 +1117,28 @@
       <c r="I17" t="s">
         <v>44</v>
       </c>
-      <c r="J17" s="24">
+      <c r="J17" s="22">
         <v>30000</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B18" s="23" t="s">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="49">
+      <c r="C18" s="45">
         <f>C12</f>
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="D18" s="45">
+      <c r="D18" s="43">
         <f>D12</f>
         <v>0.08</v>
       </c>
-      <c r="E18" s="38"/>
-      <c r="F18" s="46">
+      <c r="E18" s="36"/>
+      <c r="F18" s="44">
         <f>F12</f>
         <v>0.09</v>
       </c>
-      <c r="G18" s="44"/>
+      <c r="G18" s="42"/>
       <c r="H18">
         <f t="shared" si="0"/>
         <v>3559.3220338983056</v>
@@ -1190,28 +1146,28 @@
       <c r="I18" t="s">
         <v>44</v>
       </c>
-      <c r="J18" s="24">
+      <c r="J18" s="22">
         <f>0.4*H12</f>
         <v>3559.3220338983056</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B19" s="23" t="s">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="32">
-        <v>1</v>
-      </c>
-      <c r="D19" s="35">
-        <v>1</v>
-      </c>
-      <c r="E19" s="38">
-        <v>1</v>
-      </c>
-      <c r="F19" s="41">
-        <v>1</v>
-      </c>
-      <c r="G19" s="44">
+      <c r="C19" s="30">
+        <v>1</v>
+      </c>
+      <c r="D19" s="33">
+        <v>1</v>
+      </c>
+      <c r="E19" s="36">
+        <v>1</v>
+      </c>
+      <c r="F19" s="39">
+        <v>1</v>
+      </c>
+      <c r="G19" s="42">
         <v>1</v>
       </c>
       <c r="H19">
@@ -1221,7 +1177,7 @@
       <c r="I19" t="s">
         <v>11</v>
       </c>
-      <c r="J19" s="24">
+      <c r="J19" s="22">
         <v>100000</v>
       </c>
     </row>
@@ -1239,14 +1195,14 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.1796875" style="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" s="7"/>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
@@ -1272,40 +1228,40 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="14">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="12">
         <v>1800</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="13">
         <v>1700</v>
       </c>
-      <c r="D2" s="16">
-        <v>0</v>
-      </c>
-      <c r="E2" s="17">
-        <v>0</v>
-      </c>
-      <c r="F2" s="18">
-        <v>0</v>
-      </c>
-      <c r="G2" s="19">
+      <c r="D2" s="14">
+        <v>0</v>
+      </c>
+      <c r="E2" s="15">
+        <v>0</v>
+      </c>
+      <c r="F2" s="16">
+        <v>0</v>
+      </c>
+      <c r="G2" s="17">
         <v>600</v>
       </c>
-      <c r="H2" s="20">
+      <c r="H2" s="18">
         <v>1250</v>
       </c>
-      <c r="I2" s="21">
+      <c r="I2" s="19">
         <v>1250</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="7"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" s="7" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="3">
@@ -1317,19 +1273,19 @@
       <c r="D4" s="6">
         <v>34</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="8">
         <v>34</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="9">
         <v>32</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="7">
         <v>36</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="10">
         <v>37</v>
       </c>
-      <c r="I4" s="13">
+      <c r="I4" s="11">
         <v>34</v>
       </c>
       <c r="J4" s="5">
@@ -1337,15 +1293,15 @@
         <v>241750</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="7"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -1358,22 +1314,22 @@
       <c r="D7" s="6">
         <v>1</v>
       </c>
-      <c r="E7" s="9">
-        <v>1</v>
-      </c>
-      <c r="F7" s="10">
-        <v>0</v>
-      </c>
-      <c r="G7" s="8">
-        <v>0</v>
-      </c>
-      <c r="H7" s="12">
-        <v>0</v>
-      </c>
-      <c r="I7" s="13">
-        <v>0</v>
-      </c>
-      <c r="J7" s="22">
+      <c r="E7" s="8">
+        <v>1</v>
+      </c>
+      <c r="F7" s="9">
+        <v>0</v>
+      </c>
+      <c r="G7" s="7">
+        <v>0</v>
+      </c>
+      <c r="H7" s="10">
+        <v>0</v>
+      </c>
+      <c r="I7" s="11">
+        <v>0</v>
+      </c>
+      <c r="J7" s="20">
         <f>B7*B2+C7*C2+D7*D2+E7*E2</f>
         <v>3500</v>
       </c>
@@ -1384,7 +1340,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -1397,22 +1353,22 @@
       <c r="D8" s="6">
         <v>0</v>
       </c>
-      <c r="E8" s="9">
-        <v>0</v>
-      </c>
-      <c r="F8" s="10">
-        <v>1</v>
-      </c>
-      <c r="G8" s="8">
-        <v>1</v>
-      </c>
-      <c r="H8" s="12">
-        <v>1</v>
-      </c>
-      <c r="I8" s="13">
-        <v>1</v>
-      </c>
-      <c r="J8" s="22">
+      <c r="E8" s="8">
+        <v>0</v>
+      </c>
+      <c r="F8" s="9">
+        <v>1</v>
+      </c>
+      <c r="G8" s="7">
+        <v>1</v>
+      </c>
+      <c r="H8" s="10">
+        <v>1</v>
+      </c>
+      <c r="I8" s="11">
+        <v>1</v>
+      </c>
+      <c r="J8" s="20">
         <f>F8*F2+G8*G2+H8*H2+I8*I2</f>
         <v>3100</v>
       </c>
@@ -1423,7 +1379,7 @@
         <v>3100</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
@@ -1436,22 +1392,22 @@
       <c r="D9" s="6">
         <v>0</v>
       </c>
-      <c r="E9" s="9">
-        <v>0</v>
-      </c>
-      <c r="F9" s="10">
-        <v>1</v>
-      </c>
-      <c r="G9" s="8">
-        <v>0</v>
-      </c>
-      <c r="H9" s="12">
-        <v>0</v>
-      </c>
-      <c r="I9" s="13">
-        <v>0</v>
-      </c>
-      <c r="J9" s="22">
+      <c r="E9" s="8">
+        <v>0</v>
+      </c>
+      <c r="F9" s="9">
+        <v>1</v>
+      </c>
+      <c r="G9" s="7">
+        <v>0</v>
+      </c>
+      <c r="H9" s="10">
+        <v>0</v>
+      </c>
+      <c r="I9" s="11">
+        <v>0</v>
+      </c>
+      <c r="J9" s="20">
         <f>B9*B2+F9*F2</f>
         <v>1800</v>
       </c>
@@ -1462,7 +1418,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
@@ -1475,22 +1431,22 @@
       <c r="D10" s="6">
         <v>0</v>
       </c>
-      <c r="E10" s="9">
-        <v>0</v>
-      </c>
-      <c r="F10" s="10">
-        <v>0</v>
-      </c>
-      <c r="G10" s="8">
-        <v>1</v>
-      </c>
-      <c r="H10" s="12">
-        <v>0</v>
-      </c>
-      <c r="I10" s="13">
-        <v>0</v>
-      </c>
-      <c r="J10" s="22">
+      <c r="E10" s="8">
+        <v>0</v>
+      </c>
+      <c r="F10" s="9">
+        <v>0</v>
+      </c>
+      <c r="G10" s="7">
+        <v>1</v>
+      </c>
+      <c r="H10" s="10">
+        <v>0</v>
+      </c>
+      <c r="I10" s="11">
+        <v>0</v>
+      </c>
+      <c r="J10" s="20">
         <f>C10*C2+G10*G2</f>
         <v>2300</v>
       </c>
@@ -1501,7 +1457,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
@@ -1514,22 +1470,22 @@
       <c r="D11" s="6">
         <v>1</v>
       </c>
-      <c r="E11" s="9">
-        <v>0</v>
-      </c>
-      <c r="F11" s="10">
-        <v>0</v>
-      </c>
-      <c r="G11" s="8">
-        <v>0</v>
-      </c>
-      <c r="H11" s="12">
-        <v>1</v>
-      </c>
-      <c r="I11" s="13">
-        <v>0</v>
-      </c>
-      <c r="J11" s="22">
+      <c r="E11" s="8">
+        <v>0</v>
+      </c>
+      <c r="F11" s="9">
+        <v>0</v>
+      </c>
+      <c r="G11" s="7">
+        <v>0</v>
+      </c>
+      <c r="H11" s="10">
+        <v>1</v>
+      </c>
+      <c r="I11" s="11">
+        <v>0</v>
+      </c>
+      <c r="J11" s="20">
         <f>D11*D2+H11*H2</f>
         <v>1250</v>
       </c>
@@ -1540,7 +1496,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
@@ -1553,22 +1509,22 @@
       <c r="D12" s="6">
         <v>0</v>
       </c>
-      <c r="E12" s="9">
-        <v>1</v>
-      </c>
-      <c r="F12" s="10">
-        <v>0</v>
-      </c>
-      <c r="G12" s="8">
-        <v>0</v>
-      </c>
-      <c r="H12" s="12">
-        <v>0</v>
-      </c>
-      <c r="I12" s="13">
-        <v>1</v>
-      </c>
-      <c r="J12" s="22">
+      <c r="E12" s="8">
+        <v>1</v>
+      </c>
+      <c r="F12" s="9">
+        <v>0</v>
+      </c>
+      <c r="G12" s="7">
+        <v>0</v>
+      </c>
+      <c r="H12" s="10">
+        <v>0</v>
+      </c>
+      <c r="I12" s="11">
+        <v>1</v>
+      </c>
+      <c r="J12" s="20">
         <f>E12*E2+I12*I2</f>
         <v>1250</v>
       </c>
@@ -1579,65 +1535,65 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
     </row>
-    <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="47" t="s">
+      <c r="B15" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="47"/>
-      <c r="K15" s="47"/>
-      <c r="L15" s="47"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B16" s="47"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="47"/>
-      <c r="L16" s="47"/>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B17" s="47"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="47"/>
-      <c r="L17" s="47"/>
-    </row>
-    <row r="18" spans="2:12" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="48"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="48"/>
-      <c r="L18" s="48"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="46"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="46"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="46"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="46"/>
+    </row>
+    <row r="18" spans="2:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="47"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="47"/>
+      <c r="L18" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="1">
